--- a/Data/LTK SLA & Invoice.xlsx
+++ b/Data/LTK SLA & Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\firefox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/SLA_ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4F728B-F06F-44E6-8598-AF2F7B8F9BDA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -455,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -542,97 +541,91 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -669,7 +662,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -695,7 +688,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -721,7 +714,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -747,7 +740,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\-#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -790,7 +783,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -844,7 +837,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -870,7 +863,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1381,25 +1374,25 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1470,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1578,7 +1571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1614,7 +1607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1650,7 +1643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1686,7 +1679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1794,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1830,7 +1823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1866,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1902,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2010,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2046,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2082,7 +2075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2118,7 +2111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2154,7 +2147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2190,7 +2183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2226,7 +2219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2262,7 +2255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2298,7 +2291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2306,13 +2299,13 @@
         <v>75</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="14">
         <v>15</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <f>Table1[[#This Row],[QRC]]/3</f>
         <v>32176</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -2340,13 +2333,13 @@
         <v>78</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="14">
         <v>10</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <f>Table1[[#This Row],[QRC]]/3</f>
         <v>19000.95</v>
       </c>
@@ -2382,854 +2375,854 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C4" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>45212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>26046</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="31">
         <v>-48264</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="31">
         <v>0</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>-7722.24</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>-55986.239999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>45205</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <v>116426</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="31">
         <v>360000</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <v>0</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>57600</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>417600</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>45205</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>116426</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>1750</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>810000</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="31">
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>129600</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>939600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>45205</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>116426</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>5611</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="31">
         <v>61927.5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="31">
         <v>0</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9908.4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>71835.899999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>45205</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>116426</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <v>20103</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="31">
         <v>68850</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>11016</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>79866</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>45205</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>116426</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="30">
         <v>20954</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>150000</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>24000</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>174000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>45205</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>116426</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>21195</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>432000</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="31">
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>69120</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>501120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>45205</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <v>116426</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>23945</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>60000</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>0</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9600</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>69600</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>45205</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>116426</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>24174</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="31">
         <v>57000</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>0</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9120</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>66120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>45205</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>116426</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>25102</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>162000</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="31">
         <v>0</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>25920</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>187920</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>45205</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>116426</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>25106</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="31">
         <v>57000</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <v>0</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9120</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>66120</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>45205</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>116426</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>26046</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>48264</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>7722.24</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>55986.239999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>45205</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>116426</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>120000</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="31">
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>19200</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>139200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>45205</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>116426</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>120000</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="31">
         <v>0</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>19200</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>139200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>45205</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <v>116426</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="33">
         <v>96528</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="31">
         <v>0</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>15444.48</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>111972.48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>45205</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <v>116426</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="31">
         <v>1080000</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="31">
         <v>162000</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>198720</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>1440720</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <v>45205</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="30">
         <v>116426</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="31">
         <v>810000</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="31">
         <v>0</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>129600</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>939600</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>45205</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="30">
         <v>116426</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>57000</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="31">
         <v>0</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9120</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>66120</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>45205</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="30">
         <v>116426</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>96528</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="31">
         <v>0</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>15444.48</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>111972.48</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
         <v>45205</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="30">
         <v>116426</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>57002.85</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="31">
         <v>0</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>9120.4560000000001</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>66123.305999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
         <v>45205</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="30">
         <v>116426</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>120000</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="31">
         <v>0</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>19200</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>139200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>45205</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="30">
         <v>116426</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="33">
         <v>360000</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="31">
         <v>0</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>57600</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>417600</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
         <v>45205</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="30">
         <v>116426</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="31">
         <v>539154</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="31">
         <v>0</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>86264.639999999999</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>625418.64</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <v>45205</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="30">
         <v>116426</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>96528</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="31">
         <v>0</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>15444.48</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>111972.48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
         <v>45205</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="30">
         <v>116426</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="31">
         <v>28500</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="31">
         <v>0</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>4560</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>33060</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
         <v>45205</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="30">
         <v>116426</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="31">
         <v>48000</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="31">
         <v>0</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
         <v>7680</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
         <v>55680</v>
       </c>

--- a/Data/LTK SLA & Invoice.xlsx
+++ b/Data/LTK SLA & Invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/SLA_ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4F728B-F06F-44E6-8598-AF2F7B8F9BDA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C31143C-600C-4A48-88EB-66F77BF13A00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA" sheetId="1" r:id="rId1"/>
@@ -1028,6 +1028,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BCBDC4E-C1EE-4678-AA72-447EA4D993DF}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:K27" xr:uid="{2BCBDC4E-C1EE-4678-AA72-447EA4D993DF}"/>
@@ -1374,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,8 +2379,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C4" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LTK SLA & Invoice.xlsx
+++ b/Data/LTK SLA & Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6019e03d3618181c/KRA WORK/2024 WS/SLA EDA/SLA_ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C31143C-600C-4A48-88EB-66F77BF13A00}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4CE40AE1-F42C-4691-AA0D-27D04A5C7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6852D3-3EAF-49E7-B842-B243FBDB5EF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E3BAD0CB-983C-4598-BC59-C1CADFA80182}"/>
   </bookViews>
   <sheets>
     <sheet name="SLA" sheetId="1" r:id="rId1"/>
@@ -1032,6 +1032,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BCBDC4E-C1EE-4678-AA72-447EA4D993DF}" name="Table1" displayName="Table1" ref="A1:K27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:K27" xr:uid="{2BCBDC4E-C1EE-4678-AA72-447EA4D993DF}"/>
@@ -1057,6 +1061,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F18262D-995C-449D-BBAF-58D72757A9AE}" name="Table13" displayName="Table13" ref="A1:I27" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Normal 2" dataCellStyle="Comma 2">
   <autoFilter ref="A1:I27" xr:uid="{5F18262D-995C-449D-BBAF-58D72757A9AE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I27">
+    <sortCondition descending="1" ref="D2:D27"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4D352A5-4D04-4B6B-9983-C880F5EDB338}" name="Invoice Date" dataDxfId="8" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{B112AAB4-CDB8-41C2-A54B-B3FC565D6611}" name="Invoice No" dataDxfId="7" dataCellStyle="Normal 2"/>
@@ -1378,8 +1385,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView view="pageBreakPreview" zoomScale="77" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,16 +2386,16 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2427,33 +2434,33 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
-        <v>45212</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>84</v>
+        <v>45205</v>
+      </c>
+      <c r="B2" s="30">
+        <v>116426</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="30">
-        <v>26046</v>
+      <c r="D2" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F2" s="31">
-        <v>-48264</v>
+        <v>539154</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>-7722.24</v>
+        <v>86264.639999999999</v>
       </c>
       <c r="I2" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>-55986.239999999998</v>
+        <v>625418.64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,24 +2474,24 @@
         <v>85</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="31">
-        <v>360000</v>
+        <v>116</v>
+      </c>
+      <c r="F3" s="33">
+        <v>96528</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
       <c r="H3" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>57600</v>
+        <v>15444.48</v>
       </c>
       <c r="I3" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>417600</v>
+        <v>111972.48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,25 +2504,25 @@
       <c r="C4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="32">
-        <v>1750</v>
+      <c r="D4" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F4" s="33">
-        <v>810000</v>
+        <v>120000</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
       </c>
       <c r="H4" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>129600</v>
+        <v>19200</v>
       </c>
       <c r="I4" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>939600</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2528,25 +2535,25 @@
       <c r="C5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="32">
-        <v>5611</v>
+      <c r="D5" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="31">
-        <v>61927.5</v>
+        <v>108</v>
+      </c>
+      <c r="F5" s="33">
+        <v>57002.85</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
       </c>
       <c r="H5" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>9908.4</v>
+        <v>9120.4560000000001</v>
       </c>
       <c r="I5" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>71835.899999999994</v>
+        <v>66123.305999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,25 +2566,25 @@
       <c r="C6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="30">
-        <v>20103</v>
+      <c r="D6" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="31">
-        <v>68850</v>
+        <v>107</v>
+      </c>
+      <c r="F6" s="33">
+        <v>96528</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
       </c>
       <c r="H6" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>11016</v>
+        <v>15444.48</v>
       </c>
       <c r="I6" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>79866</v>
+        <v>111972.48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,25 +2597,25 @@
       <c r="C7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="30">
-        <v>20954</v>
+      <c r="D7" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F7" s="33">
-        <v>150000</v>
+        <v>57000</v>
       </c>
       <c r="G7" s="31">
         <v>0</v>
       </c>
       <c r="H7" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>24000</v>
+        <v>9120</v>
       </c>
       <c r="I7" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>174000</v>
+        <v>66120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,25 +2628,25 @@
       <c r="C8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="30">
-        <v>21195</v>
+      <c r="D8" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F8" s="33">
-        <v>432000</v>
+        <v>96528</v>
       </c>
       <c r="G8" s="31">
         <v>0</v>
       </c>
       <c r="H8" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>69120</v>
+        <v>15444.48</v>
       </c>
       <c r="I8" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>501120</v>
+        <v>111972.48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,25 +2659,25 @@
       <c r="C9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="30">
-        <v>23945</v>
+      <c r="D9" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F9" s="33">
-        <v>60000</v>
+        <v>360000</v>
       </c>
       <c r="G9" s="31">
         <v>0</v>
       </c>
       <c r="H9" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>9600</v>
+        <v>57600</v>
       </c>
       <c r="I9" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>69600</v>
+        <v>417600</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2683,25 +2690,25 @@
       <c r="C10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="34">
-        <v>24174</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>94</v>
+      <c r="D10" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="F10" s="31">
-        <v>57000</v>
+        <v>1080000</v>
       </c>
       <c r="G10" s="31">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="H10" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>9120</v>
+        <v>198720</v>
       </c>
       <c r="I10" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>66120</v>
+        <v>1440720</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2714,25 +2721,25 @@
       <c r="C11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="30">
-        <v>25102</v>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="33">
-        <v>162000</v>
+        <v>104</v>
+      </c>
+      <c r="F11" s="31">
+        <v>810000</v>
       </c>
       <c r="G11" s="31">
         <v>0</v>
       </c>
       <c r="H11" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>25920</v>
+        <v>129600</v>
       </c>
       <c r="I11" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>187920</v>
+        <v>939600</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2745,25 +2752,25 @@
       <c r="C12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="30">
-        <v>25106</v>
+      <c r="D12" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="31">
-        <v>57000</v>
+        <v>98</v>
+      </c>
+      <c r="F12" s="33">
+        <v>120000</v>
       </c>
       <c r="G12" s="31">
         <v>0</v>
       </c>
       <c r="H12" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>9120</v>
+        <v>19200</v>
       </c>
       <c r="I12" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>66120</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,25 +2783,25 @@
       <c r="C13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="30">
-        <v>26046</v>
+      <c r="D13" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="31">
-        <v>48264</v>
+        <v>360000</v>
       </c>
       <c r="G13" s="31">
         <v>0</v>
       </c>
       <c r="H13" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>7722.24</v>
+        <v>57600</v>
       </c>
       <c r="I13" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>55986.239999999998</v>
+        <v>417600</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,24 +2815,24 @@
         <v>85</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="33">
-        <v>120000</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="31">
+        <v>48000</v>
       </c>
       <c r="G14" s="31">
         <v>0</v>
       </c>
       <c r="H14" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>19200</v>
+        <v>7680</v>
       </c>
       <c r="I14" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>139200</v>
+        <v>55680</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2839,24 +2846,24 @@
         <v>85</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="33">
-        <v>120000</v>
+        <v>118</v>
+      </c>
+      <c r="F15" s="31">
+        <v>28500</v>
       </c>
       <c r="G15" s="31">
         <v>0</v>
       </c>
       <c r="H15" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>19200</v>
+        <v>4560</v>
       </c>
       <c r="I15" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>139200</v>
+        <v>33060</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,24 +2877,24 @@
         <v>85</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="33">
-        <v>96528</v>
+        <v>120000</v>
       </c>
       <c r="G16" s="31">
         <v>0</v>
       </c>
       <c r="H16" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>15444.48</v>
+        <v>19200</v>
       </c>
       <c r="I16" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>111972.48</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,56 +2907,56 @@
       <c r="C17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>65</v>
+      <c r="D17" s="30">
+        <v>26046</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F17" s="31">
-        <v>1080000</v>
+        <v>48264</v>
       </c>
       <c r="G17" s="31">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>198720</v>
+        <v>7722.24</v>
       </c>
       <c r="I17" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>1440720</v>
+        <v>55986.239999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
-        <v>45205</v>
-      </c>
-      <c r="B18" s="30">
-        <v>116426</v>
+        <v>45212</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>69</v>
+      <c r="D18" s="30">
+        <v>26046</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F18" s="31">
-        <v>810000</v>
+        <v>-48264</v>
       </c>
       <c r="G18" s="31">
         <v>0</v>
       </c>
       <c r="H18" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>129600</v>
+        <v>-7722.24</v>
       </c>
       <c r="I18" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>939600</v>
+        <v>-55986.239999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2962,13 +2969,13 @@
       <c r="C19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>105</v>
+      <c r="D19" s="30">
+        <v>25106</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="33">
+        <v>96</v>
+      </c>
+      <c r="F19" s="31">
         <v>57000</v>
       </c>
       <c r="G19" s="31">
@@ -2993,25 +3000,25 @@
       <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>76</v>
+      <c r="D20" s="30">
+        <v>25102</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F20" s="33">
-        <v>96528</v>
+        <v>162000</v>
       </c>
       <c r="G20" s="31">
         <v>0</v>
       </c>
       <c r="H20" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>15444.48</v>
+        <v>25920</v>
       </c>
       <c r="I20" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>111972.48</v>
+        <v>187920</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3024,25 +3031,25 @@
       <c r="C21" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="33">
-        <v>57002.85</v>
+      <c r="D21" s="34">
+        <v>24174</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="31">
+        <v>57000</v>
       </c>
       <c r="G21" s="31">
         <v>0</v>
       </c>
       <c r="H21" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>9120.4560000000001</v>
+        <v>9120</v>
       </c>
       <c r="I21" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>66123.305999999997</v>
+        <v>66120</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,25 +3062,25 @@
       <c r="C22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>109</v>
+      <c r="D22" s="30">
+        <v>23945</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F22" s="33">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="31">
         <v>0</v>
       </c>
       <c r="H22" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>19200</v>
+        <v>9600</v>
       </c>
       <c r="I22" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>139200</v>
+        <v>69600</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3086,25 +3093,25 @@
       <c r="C23" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>111</v>
+      <c r="D23" s="30">
+        <v>21195</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F23" s="33">
-        <v>360000</v>
+        <v>432000</v>
       </c>
       <c r="G23" s="31">
         <v>0</v>
       </c>
       <c r="H23" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>57600</v>
+        <v>69120</v>
       </c>
       <c r="I23" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>417600</v>
+        <v>501120</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3117,25 +3124,25 @@
       <c r="C24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>113</v>
+      <c r="D24" s="30">
+        <v>20954</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="31">
-        <v>539154</v>
+        <v>91</v>
+      </c>
+      <c r="F24" s="33">
+        <v>150000</v>
       </c>
       <c r="G24" s="31">
         <v>0</v>
       </c>
       <c r="H24" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>86264.639999999999</v>
+        <v>24000</v>
       </c>
       <c r="I24" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>625418.64</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,25 +3155,25 @@
       <c r="C25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>115</v>
+      <c r="D25" s="30">
+        <v>20103</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="33">
-        <v>96528</v>
+        <v>90</v>
+      </c>
+      <c r="F25" s="31">
+        <v>68850</v>
       </c>
       <c r="G25" s="31">
         <v>0</v>
       </c>
       <c r="H25" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>15444.48</v>
+        <v>11016</v>
       </c>
       <c r="I25" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>111972.48</v>
+        <v>79866</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3179,25 +3186,25 @@
       <c r="C26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>117</v>
+      <c r="D26" s="32">
+        <v>5611</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F26" s="31">
-        <v>28500</v>
+        <v>61927.5</v>
       </c>
       <c r="G26" s="31">
         <v>0</v>
       </c>
       <c r="H26" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>4560</v>
+        <v>9908.4</v>
       </c>
       <c r="I26" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>33060</v>
+        <v>71835.899999999994</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3210,30 +3217,30 @@
       <c r="C27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>119</v>
+      <c r="D27" s="32">
+        <v>1750</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="31">
-        <v>48000</v>
+        <v>88</v>
+      </c>
+      <c r="F27" s="33">
+        <v>810000</v>
       </c>
       <c r="G27" s="31">
         <v>0</v>
       </c>
       <c r="H27" s="31">
         <f>0.16*(SUM(Table13[[#This Row],[QRC (EX TAX)]:[Excise (15%)]]))</f>
-        <v>7680</v>
+        <v>129600</v>
       </c>
       <c r="I27" s="31">
         <f>SUM(Table13[[#This Row],[QRC (EX TAX)]:[VAT (16%)]])</f>
-        <v>55680</v>
+        <v>939600</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
